--- a/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,32; 35,9</t>
+          <t>26,72; 35,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,82; 37,31</t>
+          <t>27,56; 37,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,47</t>
+          <t>20,71; 29,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 20,53</t>
+          <t>13,74; 20,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,31; 33,74</t>
+          <t>23,19; 33,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,98; 36,04</t>
+          <t>25,29; 35,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 24,12</t>
+          <t>15,12; 23,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,74; 18,45</t>
+          <t>12,83; 18,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,74; 33,36</t>
+          <t>26,83; 33,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>27,87; 35,17</t>
+          <t>28,09; 35,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 25,73</t>
+          <t>19,56; 25,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,36</t>
+          <t>13,99; 18,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 39,56</t>
+          <t>29,83; 39,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,36; 39,72</t>
+          <t>29,88; 39,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,21; 33,42</t>
+          <t>23,71; 32,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,88; 25,36</t>
+          <t>16,76; 24,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,07; 40,06</t>
+          <t>30,37; 40,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,06; 42,12</t>
+          <t>31,63; 42,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,93; 31,97</t>
+          <t>22,47; 32,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 25,38</t>
+          <t>18,64; 26,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,4; 38,54</t>
+          <t>31,24; 38,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,75; 38,93</t>
+          <t>31,73; 39,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,14</t>
+          <t>24,15; 31,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,06</t>
+          <t>18,37; 23,93</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,93; 49,63</t>
+          <t>40,78; 49,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,44; 44,51</t>
+          <t>36,03; 44,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,17</t>
+          <t>37,07; 46,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 29,67</t>
+          <t>6,78; 29,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,95; 33,3</t>
+          <t>20,04; 33,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,35; 37,6</t>
+          <t>26,27; 38,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,79; 39,19</t>
+          <t>24,93; 39,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,18</t>
+          <t>11,51; 20,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,24; 44,82</t>
+          <t>37,09; 44,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>34,48; 40,88</t>
+          <t>34,25; 41,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,29; 42,99</t>
+          <t>35,41; 42,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 25,92</t>
+          <t>7,37; 25,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,99; 45,69</t>
+          <t>39,87; 45,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,5; 43,27</t>
+          <t>37,53; 43,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,68; 40,46</t>
+          <t>34,53; 40,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 36,32</t>
+          <t>29,18; 35,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,88; 35,64</t>
+          <t>28,64; 35,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 40,62</t>
+          <t>33,2; 40,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,05; 41,65</t>
+          <t>34,96; 41,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 28,62</t>
+          <t>12,31; 28,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,58; 41,08</t>
+          <t>36,58; 40,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 41,08</t>
+          <t>36,54; 41,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,72; 39,96</t>
+          <t>35,64; 39,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 31,37</t>
+          <t>18,48; 31,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,32; 53,88</t>
+          <t>43,16; 54,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,35; 44,11</t>
+          <t>35,22; 44,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,28; 42,79</t>
+          <t>35,07; 42,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,98; 38,91</t>
+          <t>29,1; 38,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,62; 34,6</t>
+          <t>26,94; 34,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,64; 31,91</t>
+          <t>24,81; 31,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,25; 33,0</t>
+          <t>26,09; 32,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,26; 22,26</t>
+          <t>14,24; 22,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34,28; 40,55</t>
+          <t>34,08; 40,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,13; 35,46</t>
+          <t>29,97; 35,35</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>31,08; 36,19</t>
+          <t>31,19; 36,46</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 27,04</t>
+          <t>19,75; 27,04</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 32,31</t>
+          <t>22,52; 32,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,68; 24,71</t>
+          <t>15,44; 25,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,74; 30,28</t>
+          <t>20,3; 31,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 20,09</t>
+          <t>7,01; 21,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 15,25</t>
+          <t>11,39; 15,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,19; 16,46</t>
+          <t>12,34; 16,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,13</t>
+          <t>13,93; 18,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,05</t>
+          <t>9,1; 13,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,21; 18,19</t>
+          <t>14,27; 17,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,43; 17,32</t>
+          <t>13,54; 17,19</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,83; 19,98</t>
+          <t>15,85; 20,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 14,27</t>
+          <t>9,27; 14,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>38,23; 41,53</t>
+          <t>38,07; 41,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>35,23; 38,58</t>
+          <t>35,12; 38,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,91; 36,12</t>
+          <t>33,09; 36,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,77; 27,11</t>
+          <t>18,92; 27,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,03; 25,93</t>
+          <t>23,16; 26,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,48; 28,63</t>
+          <t>25,44; 28,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,7; 27,68</t>
+          <t>24,78; 27,86</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,52; 19,55</t>
+          <t>14,44; 19,5</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>30,9; 33,18</t>
+          <t>30,91; 33,26</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>30,71; 33,08</t>
+          <t>30,65; 32,99</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,26; 31,52</t>
+          <t>29,07; 31,45</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,19; 22,77</t>
+          <t>17,76; 22,7</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>147446</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>141909</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>106324</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>84892</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86299</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>95104</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>66481</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>69178</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>233745</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>237014</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>172805</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>154070</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>126605; 168493</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>120496; 163545</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88873; 125404</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>69430; 103291</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71130; 101440</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79537; 111950</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52481; 82960</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>57389; 83302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>209428; 261006</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>211129; 266176</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>151802; 200841</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>133268; 177924</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>127310</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>144703</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>104594</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>92717</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130067</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>123750</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100057</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>83405</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>257378</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>268453</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>204650</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>176122</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>109474; 146173</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>125138; 166946</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>89197; 123656</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>75813; 111866</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>112954; 149078</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106917; 143499</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>83402; 119324</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71298; 100615</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>230792; 285059</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>240123; 298886</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>180516; 231657</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>153353; 199748</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>245728</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>252825</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>216738</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>120061</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44043</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>83373</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52503</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25492</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>289771</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>336197</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>269241</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>145553</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>221166; 270042</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>226758; 277876</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>193497; 241300</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45281; 199836</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33622; 56071</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>68342; 99431</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41407; 65269</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19206; 34286</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>263376; 317229</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>304710; 366015</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>243660; 294742</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>61589; 212240</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>530559</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>467415</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>430194</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>338478</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>228232</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>282079</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>315813</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>214255</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>758791</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>749494</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>746007</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>552733</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>493663; 562018</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>434646; 502378</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>396635; 461436</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>301914; 372254</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>204601; 252465</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>254175; 310129</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>288381; 343131</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>120307; 279731</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>714301; 798786</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>702947; 793352</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>703424; 788286</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>371811; 630452</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>170055</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>201869</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>241223</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>158697</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>173900</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>214412</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>215094</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>158679</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>343955</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>416280</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>456317</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>317376</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>151302; 189517</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>179826; 227089</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>217673; 265690</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>137937; 182763</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>153240; 198689</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>188698; 240533</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>192356; 242214</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>119686; 186185</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>313331; 375197</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>380933; 449384</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>423574; 495037</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>259615; 355536</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>80691</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>51904</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>71955</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>29079</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>166189</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>159165</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>172030</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>86052</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>246880</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>211069</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>243985</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>115131</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66912; 97393</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41203; 66998</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>58277; 89135</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16799; 51293</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>142270; 189561</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>136930; 182863</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>150392; 198583</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>69307; 105038</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>220598; 276535</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>186291; 236532</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>216633; 273373</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>92772; 142682</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1269</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2064</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1301790</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1260625</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1171026</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>823924</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>828730</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>957882</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>921979</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>637061</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2130520</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2218508</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2093005</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1460985</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1244566; 1360393</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1201337; 1322118</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1119772; 1230762</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>638398; 915271</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>782346; 884239</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>902534; 1017702</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>873807; 982243</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>516389; 697232</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2054883; 2210608</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2136229; 2299280</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2008379; 2173519</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1234298; 1577745</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P23_R2-Clase-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1685,7 +1685,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
